--- a/document/기능별 진행현황.xlsx
+++ b/document/기능별 진행현황.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSP만 대략 짜놓음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(개인과 거의 비슷)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,107 +342,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(MY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대메뉴(좌측)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소메뉴(대메뉴 하단)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업별 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임, 이메일 등 변경 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색, AJAX 통한 값(이력서, 자소서 내용) 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 리스트 화면에서 좌측 nav 안에 메뉴들을 누르면 어떤 기업의 리뷰 / 정보가 나오게 할건지? Nav를 아예 지워버릴까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인, 기업별 R 및 UD 구현 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 기업 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(MY)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SH)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CW)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대메뉴(좌측)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소메뉴(대메뉴 하단)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 카테고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R구현 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업별 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임, 이메일 등 변경 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP만 대략 짜놓음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색, AJAX 통한 값(이력서, 자소서 내용) 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업 리스트 화면에서 좌측 nav 안에 메뉴들을 누르면 어떤 기업의 리뷰 / 정보가 나오게 할건지? Nav를 아예 지워버릴까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인, 기업별 R 및 UD 구현 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 기업 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성검사</t>
+    <t>header 등 링크 이용한 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +641,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,26 +659,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,9 +951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -997,37 +1001,37 @@
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>69</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1038,39 +1042,39 @@
         <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1084,8 +1088,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1097,24 +1101,24 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1135,10 +1139,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1148,15 +1152,15 @@
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="11" t="s">
         <v>27</v>
       </c>
@@ -1167,12 +1171,12 @@
         <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="11" t="s">
         <v>28</v>
       </c>
@@ -1183,12 +1187,12 @@
         <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1200,8 +1204,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1212,25 +1216,25 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1239,10 +1243,7 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
@@ -1258,341 +1259,342 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="2" t="s">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="2" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C37" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C38" s="21"/>
+      <c r="D38" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="15" t="s">
+      <c r="I38" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="19"/>
+      <c r="D39" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="20"/>
-      <c r="D39" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" s="16"/>
+      <c r="C40" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="D40" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="C41" s="19"/>
       <c r="D41" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="16"/>
-      <c r="D42" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="C43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/기능별 진행현황.xlsx
+++ b/document/기능별 진행현황.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기업별 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TO DO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(MY)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(CW)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검색, AJAX 통한 값(이력서, 자소서 내용) 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기업 리스트 화면에서 좌측 nav 안에 메뉴들을 누르면 어떤 기업의 리뷰 / 정보가 나오게 할건지? Nav를 아예 지워버릴까</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,19 +418,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유효성검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>header 등 링크 이용한 페이지 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호도 관련 추가 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보에 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,12 +508,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,29 +645,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,17 +995,17 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1017,21 +1018,18 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1042,29 +1040,29 @@
         <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>100</v>
+      <c r="G5" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1088,6 +1086,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="4" t="s">
@@ -1101,6 +1102,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C8" s="15" t="s">
         <v>0</v>
       </c>
@@ -1115,13 +1119,13 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1139,10 +1143,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1152,15 +1159,18 @@
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="11" t="s">
         <v>27</v>
       </c>
@@ -1171,12 +1181,12 @@
         <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="11" t="s">
         <v>28</v>
       </c>
@@ -1187,12 +1197,12 @@
         <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1204,8 +1214,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1215,26 +1225,26 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1243,7 +1253,7 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
@@ -1259,12 +1269,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="24" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
@@ -1290,31 +1295,31 @@
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="17" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1326,10 +1331,10 @@
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1340,15 +1345,15 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="13" t="s">
         <v>14</v>
       </c>
@@ -1371,13 +1376,13 @@
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="25" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1387,36 +1392,36 @@
         <v>57</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="23"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="7" t="s">
         <v>58</v>
       </c>
@@ -1425,35 +1430,35 @@
         <v>62</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.3">
@@ -1467,20 +1472,20 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1488,57 +1493,57 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="21"/>
-      <c r="D38" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" s="19"/>
-      <c r="D39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="D39" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C40" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -1547,7 +1552,7 @@
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" s="19"/>
       <c r="D41" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -1555,12 +1560,12 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -1576,6 +1581,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -1590,11 +1600,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/기능별 진행현황.xlsx
+++ b/document/기능별 진행현황.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
   <si>
     <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기업 리스트 화면에서 좌측 nav 안에 메뉴들을 누르면 어떤 기업의 리뷰 / 정보가 나오게 할건지? Nav를 아예 지워버릴까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개인, 기업별 R 및 UD 구현 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,6 +443,78 @@
   </si>
   <si>
     <t>리뷰 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호도(점수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지(사업자등록증, 개인사진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 필요한거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해야됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인회원 조회 가능, 기업회원 조회 구현 중, 회원 삭제 방식 고민 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:if 사용하면 어려울 것 같지 않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR 완료, UD 구현 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬운 것 같긴 하지만,, AJAX처럼 사용법 이해해야 할 수도 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업때 하긴 했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 맡았던 페이지 유효성(일단 최소한만 하자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 맡았던 페이지 헤더, 내비 정리(필요하면 메뉴 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 맡았던 페이지 비회원 열람제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여차하면 버리는거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +722,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,20 +749,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,15 +1058,18 @@
     <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="8" style="2" customWidth="1"/>
     <col min="9" max="9" width="42.25" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C1" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -998,14 +1090,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1020,16 +1112,14 @@
       <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1046,51 +1136,51 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1101,9 +1191,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>0</v>
@@ -1121,10 +1211,25 @@
       <c r="H8" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="14"/>
+      <c r="K8" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1141,15 +1246,26 @@
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="14"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1164,45 +1280,78 @@
       <c r="H10" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="14"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="11" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1212,8 +1361,23 @@
       <c r="G13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="14"/>
+      <c r="K13" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="7" t="s">
@@ -1223,12 +1387,23 @@
         <v>35</v>
       </c>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="24" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1241,10 +1416,23 @@
       <c r="H15" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
@@ -1253,10 +1441,25 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1271,13 +1474,43 @@
       <c r="H17" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="14"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1293,12 +1526,20 @@
       <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="21" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -1314,12 +1555,20 @@
         <v>76</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+        <v>99</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1329,12 +1578,21 @@
       <c r="G22" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="21" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1350,8 +1608,17 @@
       <c r="I23" s="14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="13" t="s">
@@ -1361,8 +1628,17 @@
         <v>15</v>
       </c>
       <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C25" s="12" t="s">
         <v>52</v>
       </c>
@@ -1374,15 +1650,24 @@
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="21" t="s">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C26" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1392,52 +1677,86 @@
         <v>57</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="19" t="s">
         <v>62</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="24" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -1449,19 +1768,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>54</v>
       </c>
@@ -1492,7 +1811,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1509,7 +1828,7 @@
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="22"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="16" t="s">
         <v>84</v>
       </c>
@@ -1520,11 +1839,11 @@
         <v>75</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="19"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="16" t="s">
         <v>85</v>
       </c>
@@ -1535,11 +1854,11 @@
         <v>75</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="24" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -1550,7 +1869,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="19"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="11" t="s">
         <v>88</v>
       </c>
@@ -1580,12 +1899,10 @@
       <c r="G44" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
+  <mergeCells count="22">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K13:K15"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -1600,6 +1917,11 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/기능별 진행현황.xlsx
+++ b/document/기능별 진행현황.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen\Desktop\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FEDAA4-40A3-4CCF-B4EF-CAE43C1B82C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="9225"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,86 +681,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,11 +1017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1034,7 @@
     <col min="6" max="6" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="8" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42.25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="42.25" style="11" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="17.875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.25" style="2" customWidth="1"/>
@@ -1065,7 +1042,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1112,43 +1089,43 @@
       <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="3" t="s">
         <v>96</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1156,22 +1133,22 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1179,15 +1156,15 @@
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1195,77 +1172,77 @@
       <c r="A8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="29" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1280,184 +1257,184 @@
       <c r="H10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="14" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="14" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="14" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="24" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="14" t="s">
+      <c r="G14" s="6"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="14" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="24" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
@@ -1474,41 +1451,41 @@
       <c r="H17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="30" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
@@ -1526,148 +1503,148 @@
       <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="13" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+      <c r="G24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1679,20 +1656,20 @@
       <c r="H26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="3" t="s">
         <v>60</v>
       </c>
@@ -1700,20 +1677,20 @@
       <c r="H27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="3" t="s">
         <v>61</v>
       </c>
@@ -1721,61 +1698,61 @@
       <c r="H28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="19" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="5" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="2" t="s">
         <v>98</v>
       </c>
@@ -1795,7 +1772,7 @@
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1811,71 +1788,71 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="27"/>
-      <c r="D38" s="16" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C39" s="25"/>
-      <c r="D39" s="16" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="25"/>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="2" t="s">
@@ -1883,29 +1860,23 @@
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="C37:C39"/>
@@ -1917,11 +1888,17 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E26:E28"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D26:D29"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K8:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E26:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
